--- a/newtest.xlsx
+++ b/newtest.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5465F03F-A010-4BC5-9F80-379199169F0D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,12 +124,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -140,7 +141,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -181,17 +189,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -477,14 +475,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:E31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="5" max="5" width="255.69921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
@@ -877,7 +878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="374">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>44</v>
       </c>
@@ -894,7 +895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="409.5">
+    <row r="25" spans="1:5" ht="409.6">
       <c r="A25">
         <v>45</v>
       </c>
@@ -911,7 +912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="204">
+    <row r="26" spans="1:5" ht="191.4">
       <c r="A26">
         <v>46</v>
       </c>
@@ -928,7 +929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="319">
+    <row r="27" spans="1:5" ht="365.4">
       <c r="A27">
         <v>47</v>
       </c>
@@ -945,7 +946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="87">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>48</v>
       </c>
@@ -1014,11 +1015,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C21:C31">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1309</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>